--- a/src/main/resources/fundTrade.xlsx
+++ b/src/main/resources/fundTrade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32000" windowHeight="13980" tabRatio="709"/>
+    <workbookView windowWidth="32000" windowHeight="13980" tabRatio="709" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="17" r:id="rId1"/>
@@ -143,14 +143,14 @@
   <numFmts count="10">
     <numFmt numFmtId="176" formatCode="[Green]0.00%;[Red]\-0.00%;[Black]0%"/>
     <numFmt numFmtId="177" formatCode="[Red]0.00%;[Green]\-0.00%"/>
-    <numFmt numFmtId="178" formatCode="[Green]0.00;[Red]\-0.00;[Black]0"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="[Green]0.00;[Red]\-0.00;[Black]0"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;mm&quot;月&quot;dd&quot;日&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="[Green]0.00;[Red]\-0.00"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="[Green]0.00;[Red]\-0.00"/>
-    <numFmt numFmtId="181" formatCode="yyyy&quot;年&quot;mm&quot;月&quot;dd&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -216,14 +216,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,6 +252,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -251,16 +267,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -269,14 +299,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,24 +314,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -329,14 +337,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,19 +358,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -393,7 +393,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,43 +447,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,13 +471,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,19 +537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,67 +549,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,15 +630,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -656,6 +647,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,6 +701,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -700,193 +724,169 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -895,16 +895,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -939,29 +939,29 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -1286,20 +1286,161 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:JY11"/>
+  <dimension ref="A1:LN11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="LI8" sqref="LI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
   <cols>
-    <col min="1" max="1" width="17.5535714285714" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="29.9017857142857" customWidth="1"/>
+    <col min="1" max="1" width="9.85714285714286" customWidth="1"/>
+    <col min="2" max="2" width="28.3571428571429" customWidth="1"/>
+    <col min="3" max="5" width="29.0714285714286" customWidth="1"/>
+    <col min="6" max="6" width="28.9285714285714" customWidth="1"/>
+    <col min="7" max="8" width="29.0714285714286" customWidth="1"/>
+    <col min="9" max="9" width="28.3571428571429" customWidth="1"/>
+    <col min="10" max="10" width="27.6428571428571" customWidth="1"/>
+    <col min="11" max="13" width="28.3571428571429" customWidth="1"/>
+    <col min="14" max="14" width="28.2142857142857" customWidth="1"/>
+    <col min="15" max="16" width="28.3571428571429" customWidth="1"/>
+    <col min="17" max="23" width="29.0714285714286" customWidth="1"/>
+    <col min="24" max="24" width="27.6428571428571" customWidth="1"/>
+    <col min="25" max="27" width="28.3571428571429" customWidth="1"/>
+    <col min="28" max="28" width="28.2142857142857" customWidth="1"/>
+    <col min="29" max="30" width="28.3571428571429" customWidth="1"/>
+    <col min="31" max="36" width="27.6428571428571" customWidth="1"/>
+    <col min="37" max="37" width="28.3571428571429" customWidth="1"/>
+    <col min="38" max="38" width="27.6428571428571" customWidth="1"/>
+    <col min="39" max="41" width="28.3571428571429" customWidth="1"/>
+    <col min="42" max="42" width="28.2142857142857" customWidth="1"/>
+    <col min="43" max="45" width="28.3571428571429" customWidth="1"/>
+    <col min="46" max="51" width="27.6428571428571" customWidth="1"/>
+    <col min="52" max="52" width="26.9285714285714" customWidth="1"/>
+    <col min="53" max="53" width="26.2142857142857" customWidth="1"/>
+    <col min="54" max="56" width="26.9285714285714" customWidth="1"/>
+    <col min="57" max="57" width="26.7142857142857" customWidth="1"/>
+    <col min="58" max="59" width="26.9285714285714" customWidth="1"/>
+    <col min="60" max="64" width="27.6428571428571" customWidth="1"/>
+    <col min="65" max="65" width="27.4285714285714" customWidth="1"/>
+    <col min="66" max="67" width="27.6428571428571" customWidth="1"/>
+    <col min="68" max="70" width="28.3571428571429" customWidth="1"/>
+    <col min="71" max="71" width="28.2142857142857" customWidth="1"/>
+    <col min="72" max="73" width="28.3571428571429" customWidth="1"/>
+    <col min="74" max="74" width="27.6428571428571" customWidth="1"/>
+    <col min="75" max="75" width="26.9285714285714" customWidth="1"/>
+    <col min="76" max="78" width="27.6428571428571" customWidth="1"/>
+    <col min="79" max="79" width="27.4285714285714" customWidth="1"/>
+    <col min="80" max="81" width="27.6428571428571" customWidth="1"/>
+    <col min="82" max="88" width="28.3571428571429" customWidth="1"/>
+    <col min="89" max="89" width="27.6428571428571" customWidth="1"/>
+    <col min="90" max="90" width="26.9285714285714" customWidth="1"/>
+    <col min="91" max="93" width="27.6428571428571" customWidth="1"/>
+    <col min="94" max="94" width="27.4285714285714" customWidth="1"/>
+    <col min="95" max="95" width="27.6428571428571" customWidth="1"/>
+    <col min="96" max="96" width="26.2142857142857" customWidth="1"/>
+    <col min="97" max="102" width="26.9285714285714" customWidth="1"/>
+    <col min="103" max="103" width="27.6428571428571" customWidth="1"/>
+    <col min="104" max="104" width="26.9285714285714" customWidth="1"/>
+    <col min="105" max="107" width="27.6428571428571" customWidth="1"/>
+    <col min="108" max="108" width="27.4285714285714" customWidth="1"/>
+    <col min="109" max="111" width="27.6428571428571" customWidth="1"/>
+    <col min="112" max="117" width="28.3571428571429" customWidth="1"/>
+    <col min="118" max="118" width="27.6428571428571" customWidth="1"/>
+    <col min="119" max="119" width="26.9285714285714" customWidth="1"/>
+    <col min="120" max="122" width="27.6428571428571" customWidth="1"/>
+    <col min="123" max="123" width="27.4285714285714" customWidth="1"/>
+    <col min="124" max="125" width="27.6428571428571" customWidth="1"/>
+    <col min="126" max="130" width="28.3571428571429" customWidth="1"/>
+    <col min="131" max="131" width="27.6428571428571" customWidth="1"/>
+    <col min="132" max="137" width="28.3571428571429" customWidth="1"/>
+    <col min="138" max="138" width="27.6428571428571" customWidth="1"/>
+    <col min="139" max="139" width="26.9285714285714" customWidth="1"/>
+    <col min="140" max="142" width="27.6428571428571" customWidth="1"/>
+    <col min="143" max="143" width="27.4285714285714" customWidth="1"/>
+    <col min="144" max="145" width="27.6428571428571" customWidth="1"/>
+    <col min="146" max="152" width="28.3571428571429" customWidth="1"/>
+    <col min="153" max="154" width="27.6428571428571" customWidth="1"/>
+    <col min="155" max="157" width="28.3571428571429" customWidth="1"/>
+    <col min="158" max="158" width="28.2142857142857" customWidth="1"/>
+    <col min="159" max="160" width="28.3571428571429" customWidth="1"/>
+    <col min="161" max="166" width="27.6428571428571" customWidth="1"/>
+    <col min="167" max="167" width="28.3571428571429" customWidth="1"/>
+    <col min="168" max="168" width="27.6428571428571" customWidth="1"/>
+    <col min="169" max="171" width="28.3571428571429" customWidth="1"/>
+    <col min="172" max="172" width="28.2142857142857" customWidth="1"/>
+    <col min="173" max="179" width="28.3571428571429" customWidth="1"/>
+    <col min="180" max="180" width="28.2142857142857" customWidth="1"/>
+    <col min="181" max="181" width="27.6428571428571" customWidth="1"/>
+    <col min="182" max="182" width="26.9285714285714" customWidth="1"/>
+    <col min="183" max="185" width="27.6428571428571" customWidth="1"/>
+    <col min="186" max="186" width="27.4285714285714" customWidth="1"/>
+    <col min="187" max="188" width="27.6428571428571" customWidth="1"/>
+    <col min="189" max="189" width="28.3571428571429" customWidth="1"/>
+    <col min="190" max="190" width="27.6428571428571" customWidth="1"/>
+    <col min="191" max="193" width="28.3571428571429" customWidth="1"/>
+    <col min="194" max="194" width="28.2142857142857" customWidth="1"/>
+    <col min="195" max="195" width="28.3571428571429" customWidth="1"/>
+    <col min="196" max="197" width="27.6428571428571" customWidth="1"/>
+    <col min="198" max="200" width="28.3571428571429" customWidth="1"/>
+    <col min="201" max="201" width="28.2142857142857" customWidth="1"/>
+    <col min="202" max="203" width="28.3571428571429" customWidth="1"/>
+    <col min="204" max="204" width="27.6428571428571" customWidth="1"/>
+    <col min="205" max="205" width="26.9285714285714" customWidth="1"/>
+    <col min="206" max="208" width="27.6428571428571" customWidth="1"/>
+    <col min="209" max="209" width="27.4285714285714" customWidth="1"/>
+    <col min="210" max="211" width="27.6428571428571" customWidth="1"/>
+    <col min="212" max="218" width="28.3571428571429" customWidth="1"/>
+    <col min="219" max="219" width="27.4285714285714" customWidth="1"/>
+    <col min="220" max="222" width="28.2142857142857" customWidth="1"/>
+    <col min="223" max="223" width="28" customWidth="1"/>
+    <col min="224" max="225" width="28.2142857142857" customWidth="1"/>
+    <col min="226" max="231" width="27.4285714285714" customWidth="1"/>
+    <col min="232" max="232" width="28.2142857142857" customWidth="1"/>
+    <col min="233" max="233" width="27.4285714285714" customWidth="1"/>
+    <col min="234" max="236" width="28.2142857142857" customWidth="1"/>
+    <col min="237" max="237" width="28" customWidth="1"/>
+    <col min="238" max="240" width="28.2142857142857" customWidth="1"/>
+    <col min="241" max="246" width="28.3571428571429" customWidth="1"/>
+    <col min="247" max="247" width="27.6428571428571" customWidth="1"/>
+    <col min="248" max="248" width="26.9285714285714" customWidth="1"/>
+    <col min="249" max="251" width="27.6428571428571" customWidth="1"/>
+    <col min="252" max="252" width="27.4285714285714" customWidth="1"/>
+    <col min="253" max="254" width="27.6428571428571" customWidth="1"/>
+    <col min="255" max="259" width="28.3571428571429" customWidth="1"/>
+    <col min="260" max="260" width="28.2142857142857" customWidth="1"/>
+    <col min="261" max="261" width="28.3571428571429" customWidth="1"/>
+    <col min="262" max="263" width="27.6428571428571" customWidth="1"/>
+    <col min="264" max="266" width="28.3571428571429" customWidth="1"/>
+    <col min="267" max="267" width="28.2142857142857" customWidth="1"/>
+    <col min="268" max="269" width="28.3571428571429" customWidth="1"/>
+    <col min="270" max="274" width="27.6428571428571" customWidth="1"/>
+    <col min="275" max="275" width="27.4285714285714" customWidth="1"/>
+    <col min="276" max="278" width="28.3571428571429" customWidth="1"/>
+    <col min="279" max="279" width="28.2142857142857" customWidth="1"/>
+    <col min="280" max="282" width="28.3571428571429" customWidth="1"/>
+    <col min="283" max="283" width="27.6428571428571" customWidth="1"/>
+    <col min="284" max="284" width="26.2142857142857" customWidth="1"/>
+    <col min="285" max="290" width="26.9285714285714" customWidth="1"/>
+    <col min="291" max="291" width="27.6428571428571" customWidth="1"/>
+    <col min="292" max="292" width="26.9285714285714" customWidth="1"/>
+    <col min="293" max="295" width="27.6428571428571" customWidth="1"/>
+    <col min="296" max="296" width="27.4285714285714" customWidth="1"/>
+    <col min="297" max="298" width="27.6428571428571" customWidth="1"/>
+    <col min="299" max="299" width="26.2142857142857" customWidth="1"/>
+    <col min="300" max="305" width="26.9285714285714" customWidth="1"/>
+    <col min="306" max="306" width="26.2142857142857" customWidth="1"/>
+    <col min="307" max="307" width="25.5" customWidth="1"/>
+    <col min="308" max="310" width="26.2142857142857" customWidth="1"/>
+    <col min="311" max="311" width="26" customWidth="1"/>
+    <col min="312" max="313" width="26.2142857142857" customWidth="1"/>
+    <col min="314" max="321" width="26.9285714285714" customWidth="1"/>
+    <col min="322" max="324" width="27.6428571428571" customWidth="1"/>
+    <col min="325" max="325" width="27.4285714285714" customWidth="1"/>
+    <col min="326" max="326" width="27.6428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26" spans="1:285">
+    <row r="1" ht="26" spans="1:326">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -2155,8 +2296,131 @@
       <c r="JY1" s="34">
         <v>44481</v>
       </c>
-    </row>
-    <row r="2" ht="26" spans="1:285">
+      <c r="JZ1" s="34">
+        <v>44482</v>
+      </c>
+      <c r="KA1" s="34">
+        <v>44483</v>
+      </c>
+      <c r="KB1" s="34">
+        <v>44484</v>
+      </c>
+      <c r="KC1" s="34">
+        <v>44487</v>
+      </c>
+      <c r="KD1" s="34">
+        <v>44488</v>
+      </c>
+      <c r="KE1" s="34">
+        <v>44489</v>
+      </c>
+      <c r="KF1" s="34">
+        <v>44490</v>
+      </c>
+      <c r="KG1" s="34">
+        <v>44491</v>
+      </c>
+      <c r="KH1" s="34">
+        <v>44494</v>
+      </c>
+      <c r="KI1" s="34">
+        <v>44495</v>
+      </c>
+      <c r="KJ1" s="34">
+        <v>44496</v>
+      </c>
+      <c r="KK1" s="34">
+        <v>44497</v>
+      </c>
+      <c r="KL1" s="34">
+        <v>44498</v>
+      </c>
+      <c r="KM1" s="34">
+        <v>44501</v>
+      </c>
+      <c r="KN1" s="34">
+        <v>44502</v>
+      </c>
+      <c r="KO1" s="34">
+        <v>44503</v>
+      </c>
+      <c r="KP1" s="34">
+        <v>44504</v>
+      </c>
+      <c r="KQ1" s="34">
+        <v>44505</v>
+      </c>
+      <c r="KR1" s="34">
+        <v>44508</v>
+      </c>
+      <c r="KS1" s="34">
+        <v>44509</v>
+      </c>
+      <c r="KT1" s="34">
+        <v>44510</v>
+      </c>
+      <c r="KU1" s="34">
+        <v>44511</v>
+      </c>
+      <c r="KV1" s="34">
+        <v>44512</v>
+      </c>
+      <c r="KW1" s="34">
+        <v>44515</v>
+      </c>
+      <c r="KX1" s="34">
+        <v>44516</v>
+      </c>
+      <c r="KY1" s="34">
+        <v>44517</v>
+      </c>
+      <c r="KZ1" s="34">
+        <v>44518</v>
+      </c>
+      <c r="LA1" s="34">
+        <v>44519</v>
+      </c>
+      <c r="LB1" s="34">
+        <v>44522</v>
+      </c>
+      <c r="LC1" s="34">
+        <v>44523</v>
+      </c>
+      <c r="LD1" s="34">
+        <v>44524</v>
+      </c>
+      <c r="LE1" s="34">
+        <v>44525</v>
+      </c>
+      <c r="LF1" s="34">
+        <v>44526</v>
+      </c>
+      <c r="LG1" s="34">
+        <v>44529</v>
+      </c>
+      <c r="LH1" s="34">
+        <v>44530</v>
+      </c>
+      <c r="LI1" s="34">
+        <v>44531</v>
+      </c>
+      <c r="LJ1" s="34">
+        <v>44532</v>
+      </c>
+      <c r="LK1" s="34">
+        <v>44533</v>
+      </c>
+      <c r="LL1" s="34">
+        <v>44536</v>
+      </c>
+      <c r="LM1" s="34">
+        <v>44537</v>
+      </c>
+      <c r="LN1" s="34">
+        <v>44538</v>
+      </c>
+    </row>
+    <row r="2" ht="26" spans="1:326">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -3002,8 +3266,49 @@
       <c r="JY2" s="30">
         <v>-400</v>
       </c>
-    </row>
-    <row r="3" ht="26" spans="1:285">
+      <c r="JZ2" s="30"/>
+      <c r="KA2" s="30"/>
+      <c r="KB2" s="30"/>
+      <c r="KC2" s="30"/>
+      <c r="KD2" s="30"/>
+      <c r="KE2" s="30"/>
+      <c r="KF2" s="30"/>
+      <c r="KG2" s="30"/>
+      <c r="KH2" s="30"/>
+      <c r="KI2" s="30"/>
+      <c r="KJ2" s="30"/>
+      <c r="KK2" s="30"/>
+      <c r="KL2" s="30"/>
+      <c r="KM2" s="30"/>
+      <c r="KN2" s="30"/>
+      <c r="KO2" s="30"/>
+      <c r="KP2" s="30"/>
+      <c r="KQ2" s="30"/>
+      <c r="KR2" s="30"/>
+      <c r="KS2" s="30"/>
+      <c r="KT2" s="30"/>
+      <c r="KU2" s="30"/>
+      <c r="KV2" s="30"/>
+      <c r="KW2" s="30"/>
+      <c r="KX2" s="30"/>
+      <c r="KY2" s="30"/>
+      <c r="KZ2" s="30"/>
+      <c r="LA2" s="30"/>
+      <c r="LB2" s="30"/>
+      <c r="LC2" s="30"/>
+      <c r="LD2" s="30"/>
+      <c r="LE2" s="30"/>
+      <c r="LF2" s="30"/>
+      <c r="LG2" s="30"/>
+      <c r="LH2" s="30"/>
+      <c r="LI2" s="30"/>
+      <c r="LJ2" s="30"/>
+      <c r="LK2" s="30"/>
+      <c r="LL2" s="30"/>
+      <c r="LM2" s="30"/>
+      <c r="LN2" s="30"/>
+    </row>
+    <row r="3" ht="26" spans="1:326">
       <c r="A3" s="25">
         <v>161005</v>
       </c>
@@ -3852,8 +4157,64 @@
       <c r="JY3" s="30">
         <v>-120</v>
       </c>
-    </row>
-    <row r="4" ht="26" spans="1:285">
+      <c r="JZ3" s="30"/>
+      <c r="KA3" s="30"/>
+      <c r="KB3" s="30">
+        <v>-120</v>
+      </c>
+      <c r="KD3" s="30">
+        <v>-120</v>
+      </c>
+      <c r="KE3" s="30"/>
+      <c r="KF3" s="30"/>
+      <c r="KG3" s="30"/>
+      <c r="KH3" s="30"/>
+      <c r="KI3" s="30">
+        <v>-120</v>
+      </c>
+      <c r="KJ3" s="30"/>
+      <c r="KK3" s="30"/>
+      <c r="KL3" s="30"/>
+      <c r="KM3" s="30"/>
+      <c r="KN3" s="30">
+        <v>-120</v>
+      </c>
+      <c r="KO3" s="30"/>
+      <c r="KP3" s="30"/>
+      <c r="KQ3" s="30"/>
+      <c r="KR3" s="30"/>
+      <c r="KS3" s="30">
+        <v>-120</v>
+      </c>
+      <c r="KT3" s="30"/>
+      <c r="KU3" s="30"/>
+      <c r="KV3" s="30"/>
+      <c r="KW3" s="30"/>
+      <c r="KX3" s="30"/>
+      <c r="KY3" s="30"/>
+      <c r="KZ3" s="30">
+        <v>-120</v>
+      </c>
+      <c r="LA3" s="30"/>
+      <c r="LB3" s="30"/>
+      <c r="LC3" s="30"/>
+      <c r="LD3" s="30"/>
+      <c r="LE3" s="30">
+        <v>-120</v>
+      </c>
+      <c r="LF3" s="30"/>
+      <c r="LG3" s="30"/>
+      <c r="LH3" s="30"/>
+      <c r="LI3" s="30"/>
+      <c r="LJ3" s="30">
+        <v>-120</v>
+      </c>
+      <c r="LK3" s="30"/>
+      <c r="LL3" s="30"/>
+      <c r="LM3" s="30"/>
+      <c r="LN3" s="30"/>
+    </row>
+    <row r="4" ht="26" spans="1:326">
       <c r="A4" s="25">
         <v>166009</v>
       </c>
@@ -4699,8 +5060,57 @@
         <v>-200</v>
       </c>
       <c r="JY4" s="30"/>
-    </row>
-    <row r="5" ht="26" spans="1:285">
+      <c r="JZ4" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KA4" s="30"/>
+      <c r="KB4" s="30"/>
+      <c r="KC4" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KD4" s="30"/>
+      <c r="KE4" s="30"/>
+      <c r="KF4" s="30"/>
+      <c r="KG4" s="30"/>
+      <c r="KH4" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KI4" s="30"/>
+      <c r="KJ4" s="30"/>
+      <c r="KK4" s="30"/>
+      <c r="KL4" s="30"/>
+      <c r="KM4" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KN4" s="30"/>
+      <c r="KO4" s="30"/>
+      <c r="KP4" s="30"/>
+      <c r="KQ4" s="30"/>
+      <c r="KR4" s="30"/>
+      <c r="KS4" s="30"/>
+      <c r="KT4" s="30"/>
+      <c r="KU4" s="30"/>
+      <c r="KV4" s="30"/>
+      <c r="KW4" s="30"/>
+      <c r="KX4" s="30"/>
+      <c r="KY4" s="30"/>
+      <c r="KZ4" s="30"/>
+      <c r="LA4" s="30"/>
+      <c r="LB4" s="30"/>
+      <c r="LC4" s="30"/>
+      <c r="LD4" s="30"/>
+      <c r="LE4" s="30"/>
+      <c r="LF4" s="30"/>
+      <c r="LG4" s="30"/>
+      <c r="LH4" s="30"/>
+      <c r="LI4" s="30"/>
+      <c r="LJ4" s="30"/>
+      <c r="LK4" s="30"/>
+      <c r="LL4" s="30"/>
+      <c r="LM4" s="30"/>
+      <c r="LN4" s="30"/>
+    </row>
+    <row r="5" ht="26" spans="1:326">
       <c r="A5" s="25">
         <v>100026</v>
       </c>
@@ -5544,8 +5954,65 @@
         <v>-100</v>
       </c>
       <c r="JY5" s="30"/>
-    </row>
-    <row r="6" ht="26" spans="1:285">
+      <c r="JZ5" s="30"/>
+      <c r="KA5" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KB5" s="30"/>
+      <c r="KC5" s="30"/>
+      <c r="KD5" s="30"/>
+      <c r="KE5" s="30"/>
+      <c r="KF5" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KG5" s="30"/>
+      <c r="KH5" s="30"/>
+      <c r="KI5" s="30"/>
+      <c r="KJ5" s="30"/>
+      <c r="KK5" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KL5" s="30"/>
+      <c r="KM5" s="30"/>
+      <c r="KN5" s="30"/>
+      <c r="KO5" s="30"/>
+      <c r="KP5" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KQ5" s="30"/>
+      <c r="KR5" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KS5" s="30"/>
+      <c r="KT5" s="30"/>
+      <c r="KU5" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KV5" s="30"/>
+      <c r="KW5" s="30"/>
+      <c r="KX5" s="30"/>
+      <c r="KY5" s="30"/>
+      <c r="KZ5" s="30"/>
+      <c r="LA5" s="30"/>
+      <c r="LB5" s="30"/>
+      <c r="LC5" s="30"/>
+      <c r="LD5" s="30"/>
+      <c r="LE5" s="30">
+        <v>-100</v>
+      </c>
+      <c r="LF5" s="30"/>
+      <c r="LG5" s="30"/>
+      <c r="LH5" s="30"/>
+      <c r="LI5" s="30"/>
+      <c r="LJ5" s="30">
+        <v>-100</v>
+      </c>
+      <c r="LK5" s="30"/>
+      <c r="LL5" s="30"/>
+      <c r="LM5" s="30"/>
+      <c r="LN5" s="30"/>
+    </row>
+    <row r="6" ht="26" spans="1:326">
       <c r="A6" s="25">
         <v>161726</v>
       </c>
@@ -6392,8 +6859,86 @@
         <v>-200</v>
       </c>
       <c r="JY6" s="30"/>
-    </row>
-    <row r="7" ht="47" spans="1:285">
+      <c r="JZ6" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KA6" s="30"/>
+      <c r="KB6" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KC6" s="30"/>
+      <c r="KD6" s="30"/>
+      <c r="KE6" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KF6" s="30"/>
+      <c r="KG6" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KH6" s="30"/>
+      <c r="KI6" s="30"/>
+      <c r="KJ6" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KK6" s="30"/>
+      <c r="KL6" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KM6" s="30"/>
+      <c r="KN6" s="30">
+        <v>-200</v>
+      </c>
+      <c r="KO6" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KP6" s="30"/>
+      <c r="KQ6" s="30"/>
+      <c r="KR6" s="30"/>
+      <c r="KS6" s="30">
+        <v>-200</v>
+      </c>
+      <c r="KT6" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KU6" s="30"/>
+      <c r="KV6" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KW6" s="30"/>
+      <c r="KY6" s="30">
+        <v>-150</v>
+      </c>
+      <c r="KZ6" s="30"/>
+      <c r="LA6" s="30">
+        <v>-150</v>
+      </c>
+      <c r="LB6" s="30"/>
+      <c r="LC6" s="30"/>
+      <c r="LD6" s="30">
+        <v>-150</v>
+      </c>
+      <c r="LE6" s="30"/>
+      <c r="LF6" s="30">
+        <v>-150</v>
+      </c>
+      <c r="LG6" s="30"/>
+      <c r="LH6" s="30"/>
+      <c r="LI6" s="30">
+        <v>-150</v>
+      </c>
+      <c r="LJ6" s="30"/>
+      <c r="LK6" s="30">
+        <v>-150</v>
+      </c>
+      <c r="LL6" s="30"/>
+      <c r="LM6" s="30">
+        <v>-300</v>
+      </c>
+      <c r="LN6" s="30">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="7" ht="26" spans="1:326">
       <c r="A7" s="35" t="s">
         <v>2</v>
       </c>
@@ -7241,8 +7786,69 @@
         <v>-200</v>
       </c>
       <c r="JY7" s="30"/>
-    </row>
-    <row r="8" ht="26" spans="1:285">
+      <c r="JZ7" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KA7" s="30"/>
+      <c r="KB7" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KC7" s="30"/>
+      <c r="KD7" s="30"/>
+      <c r="KE7" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KF7" s="30"/>
+      <c r="KG7" s="30"/>
+      <c r="KH7" s="30"/>
+      <c r="KI7" s="30"/>
+      <c r="KJ7" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KK7" s="30"/>
+      <c r="KL7" s="30"/>
+      <c r="KM7" s="30"/>
+      <c r="KN7" s="30"/>
+      <c r="KO7" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KP7" s="30"/>
+      <c r="KQ7" s="30"/>
+      <c r="KR7" s="30"/>
+      <c r="KS7" s="30"/>
+      <c r="KT7" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KU7" s="30"/>
+      <c r="KV7" s="30"/>
+      <c r="KW7" s="30"/>
+      <c r="KX7" s="30"/>
+      <c r="KY7" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KZ7" s="30"/>
+      <c r="LA7" s="30"/>
+      <c r="LB7" s="30"/>
+      <c r="LC7" s="30"/>
+      <c r="LD7" s="30">
+        <v>-100</v>
+      </c>
+      <c r="LE7" s="30"/>
+      <c r="LF7" s="30"/>
+      <c r="LG7" s="30"/>
+      <c r="LH7" s="30"/>
+      <c r="LI7" s="30">
+        <v>-100</v>
+      </c>
+      <c r="LJ7" s="30"/>
+      <c r="LK7" s="30"/>
+      <c r="LL7" s="30"/>
+      <c r="LM7" s="30"/>
+      <c r="LN7" s="30">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="8" ht="26" spans="1:326">
       <c r="A8" s="35" t="s">
         <v>3</v>
       </c>
@@ -8088,8 +8694,60 @@
         <v>-200</v>
       </c>
       <c r="JY8" s="30"/>
-    </row>
-    <row r="9" ht="26" spans="1:285">
+      <c r="JZ8" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KA8" s="30"/>
+      <c r="KB8" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KC8" s="30"/>
+      <c r="KD8" s="30"/>
+      <c r="KE8" s="30"/>
+      <c r="KF8" s="30"/>
+      <c r="KG8" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KH8" s="30"/>
+      <c r="KI8" s="30"/>
+      <c r="KJ8" s="30"/>
+      <c r="KK8" s="30"/>
+      <c r="KL8" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KM8" s="30"/>
+      <c r="KN8" s="30"/>
+      <c r="KO8" s="30"/>
+      <c r="KP8" s="30"/>
+      <c r="KQ8" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KR8" s="30"/>
+      <c r="KS8" s="30"/>
+      <c r="KT8" s="30"/>
+      <c r="KU8" s="30"/>
+      <c r="KV8" s="30"/>
+      <c r="KW8" s="30"/>
+      <c r="KX8" s="30"/>
+      <c r="KZ8" s="30"/>
+      <c r="LA8" s="30"/>
+      <c r="LB8" s="30"/>
+      <c r="LC8" s="30"/>
+      <c r="LD8" s="30"/>
+      <c r="LE8" s="30"/>
+      <c r="LF8" s="30"/>
+      <c r="LG8" s="30"/>
+      <c r="LH8" s="30"/>
+      <c r="LI8" s="30">
+        <v>4290.21</v>
+      </c>
+      <c r="LJ8" s="30"/>
+      <c r="LK8" s="30"/>
+      <c r="LL8" s="30"/>
+      <c r="LM8" s="30"/>
+      <c r="LN8" s="30"/>
+    </row>
+    <row r="9" ht="26" spans="1:326">
       <c r="A9" s="35" t="s">
         <v>4</v>
       </c>
@@ -8937,8 +9595,53 @@
       <c r="JY9" s="30">
         <v>-100</v>
       </c>
-    </row>
-    <row r="10" ht="26" spans="1:285">
+      <c r="JZ9" s="30"/>
+      <c r="KA9" s="30"/>
+      <c r="KB9" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KC9" s="30"/>
+      <c r="KD9" s="30"/>
+      <c r="KE9" s="30"/>
+      <c r="KF9" s="30"/>
+      <c r="KG9" s="30"/>
+      <c r="KH9" s="30"/>
+      <c r="KI9" s="30"/>
+      <c r="KJ9" s="30"/>
+      <c r="KK9" s="30"/>
+      <c r="KL9" s="30"/>
+      <c r="KM9" s="30"/>
+      <c r="KN9" s="30"/>
+      <c r="KO9" s="30"/>
+      <c r="KP9" s="30"/>
+      <c r="KQ9" s="30"/>
+      <c r="KR9" s="30"/>
+      <c r="KS9" s="30"/>
+      <c r="KT9" s="30"/>
+      <c r="KU9" s="30"/>
+      <c r="KV9" s="30"/>
+      <c r="KW9" s="30"/>
+      <c r="KX9" s="30">
+        <v>3450.61</v>
+      </c>
+      <c r="KY9" s="30"/>
+      <c r="KZ9" s="30"/>
+      <c r="LA9" s="30"/>
+      <c r="LB9" s="30"/>
+      <c r="LC9" s="30"/>
+      <c r="LD9" s="30"/>
+      <c r="LE9" s="30"/>
+      <c r="LF9" s="30"/>
+      <c r="LG9" s="30"/>
+      <c r="LH9" s="30"/>
+      <c r="LI9" s="30"/>
+      <c r="LJ9" s="30"/>
+      <c r="LK9" s="30"/>
+      <c r="LL9" s="30"/>
+      <c r="LM9" s="30"/>
+      <c r="LN9" s="30"/>
+    </row>
+    <row r="10" ht="26" spans="1:326">
       <c r="A10" s="35" t="s">
         <v>5</v>
       </c>
@@ -9786,8 +10489,65 @@
       <c r="JY10" s="30">
         <v>-200</v>
       </c>
-    </row>
-    <row r="11" ht="26" spans="1:285">
+      <c r="JZ10" s="30"/>
+      <c r="KA10" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KB10" s="30"/>
+      <c r="KC10" s="30"/>
+      <c r="KD10" s="30"/>
+      <c r="KE10" s="30"/>
+      <c r="KF10" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KG10" s="30"/>
+      <c r="KH10" s="30"/>
+      <c r="KI10" s="30"/>
+      <c r="KJ10" s="30"/>
+      <c r="KK10" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KL10" s="30"/>
+      <c r="KM10" s="30"/>
+      <c r="KN10" s="30"/>
+      <c r="KO10" s="30"/>
+      <c r="KP10" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KQ10" s="30"/>
+      <c r="KR10" s="30"/>
+      <c r="KS10" s="30"/>
+      <c r="KT10" s="30"/>
+      <c r="KU10" s="30">
+        <v>-100</v>
+      </c>
+      <c r="KV10" s="30"/>
+      <c r="KW10" s="30"/>
+      <c r="KX10" s="30"/>
+      <c r="KY10" s="30"/>
+      <c r="KZ10" s="30">
+        <v>-100</v>
+      </c>
+      <c r="LA10" s="30"/>
+      <c r="LB10" s="30"/>
+      <c r="LC10" s="30"/>
+      <c r="LD10" s="30"/>
+      <c r="LE10" s="30">
+        <v>-100</v>
+      </c>
+      <c r="LF10" s="30"/>
+      <c r="LG10" s="30"/>
+      <c r="LH10" s="30"/>
+      <c r="LI10" s="30"/>
+      <c r="LJ10" s="30">
+        <v>-100</v>
+      </c>
+      <c r="LK10" s="30"/>
+      <c r="LL10" s="30"/>
+      <c r="LM10" s="30"/>
+      <c r="LN10" s="30"/>
+    </row>
+    <row r="11" ht="26" spans="1:326">
       <c r="A11" s="25">
         <v>118001</v>
       </c>
@@ -10627,6 +11387,49 @@
       <c r="JW11" s="30"/>
       <c r="JX11" s="30"/>
       <c r="JY11" s="30"/>
+      <c r="JZ11" s="30"/>
+      <c r="KA11" s="30"/>
+      <c r="KB11" s="30"/>
+      <c r="KC11" s="30"/>
+      <c r="KD11" s="30"/>
+      <c r="KE11" s="30"/>
+      <c r="KF11" s="30"/>
+      <c r="KG11" s="30"/>
+      <c r="KH11" s="30"/>
+      <c r="KI11" s="30"/>
+      <c r="KJ11" s="30"/>
+      <c r="KK11" s="30"/>
+      <c r="KL11" s="30"/>
+      <c r="KM11" s="30"/>
+      <c r="KN11" s="30"/>
+      <c r="KO11" s="30">
+        <v>273.94</v>
+      </c>
+      <c r="KP11" s="30"/>
+      <c r="KQ11" s="30"/>
+      <c r="KR11" s="30"/>
+      <c r="KS11" s="30"/>
+      <c r="KT11" s="30"/>
+      <c r="KU11" s="30"/>
+      <c r="KV11" s="30"/>
+      <c r="KW11" s="30"/>
+      <c r="KX11" s="30"/>
+      <c r="KY11" s="30"/>
+      <c r="KZ11" s="30"/>
+      <c r="LA11" s="30"/>
+      <c r="LB11" s="30"/>
+      <c r="LC11" s="30"/>
+      <c r="LD11" s="30"/>
+      <c r="LE11" s="30"/>
+      <c r="LF11" s="30"/>
+      <c r="LG11" s="30"/>
+      <c r="LH11" s="30"/>
+      <c r="LI11" s="30"/>
+      <c r="LJ11" s="30"/>
+      <c r="LK11" s="30"/>
+      <c r="LL11" s="30"/>
+      <c r="LM11" s="30"/>
+      <c r="LN11" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -10637,12 +11440,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K338"/>
+  <dimension ref="A1:K379"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="A1:K285"/>
+      <selection pane="bottomLeft" activeCell="H321" sqref="H321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
@@ -20554,128 +21357,749 @@
       </c>
       <c r="K285" s="30"/>
     </row>
-    <row r="286" ht="26" spans="7:7">
-      <c r="G286" s="32"/>
-    </row>
-    <row r="287" ht="26" spans="7:7">
-      <c r="G287" s="32"/>
-    </row>
-    <row r="288" ht="26" spans="7:7">
-      <c r="G288" s="32"/>
-    </row>
-    <row r="289" ht="26" spans="7:7">
-      <c r="G289" s="32"/>
-    </row>
-    <row r="290" ht="26" spans="7:7">
-      <c r="G290" s="32"/>
-    </row>
-    <row r="291" ht="26" spans="7:7">
-      <c r="G291" s="32"/>
-    </row>
-    <row r="292" ht="26" spans="7:7">
-      <c r="G292" s="32"/>
-    </row>
-    <row r="293" ht="26" spans="7:7">
-      <c r="G293" s="32"/>
-    </row>
-    <row r="294" ht="26" spans="7:7">
-      <c r="G294" s="32"/>
-    </row>
-    <row r="295" ht="26" spans="7:7">
-      <c r="G295" s="32"/>
-    </row>
-    <row r="296" ht="26" spans="7:7">
-      <c r="G296" s="32"/>
-    </row>
-    <row r="297" ht="26" spans="7:7">
-      <c r="G297" s="32"/>
-    </row>
-    <row r="298" ht="26" spans="7:7">
-      <c r="G298" s="32"/>
-    </row>
-    <row r="299" ht="26" spans="7:7">
-      <c r="G299" s="32"/>
-    </row>
-    <row r="300" ht="26" spans="7:7">
-      <c r="G300" s="32"/>
-    </row>
-    <row r="301" ht="26" spans="7:7">
-      <c r="G301" s="32"/>
-    </row>
-    <row r="302" ht="26" spans="7:7">
-      <c r="G302" s="32"/>
-    </row>
-    <row r="303" ht="26" spans="7:7">
-      <c r="G303" s="32"/>
-    </row>
-    <row r="304" ht="26" spans="7:7">
-      <c r="G304" s="32"/>
-    </row>
-    <row r="305" ht="26" spans="7:7">
-      <c r="G305" s="32"/>
-    </row>
-    <row r="306" ht="26" spans="7:7">
-      <c r="G306" s="32"/>
-    </row>
-    <row r="307" ht="26" spans="7:7">
-      <c r="G307" s="32"/>
-    </row>
-    <row r="308" ht="26" spans="7:7">
-      <c r="G308" s="32"/>
-    </row>
-    <row r="309" ht="26" spans="7:7">
-      <c r="G309" s="32"/>
-    </row>
-    <row r="310" ht="26" spans="7:7">
-      <c r="G310" s="32"/>
-    </row>
-    <row r="311" ht="26" spans="7:7">
-      <c r="G311" s="32"/>
-    </row>
-    <row r="312" ht="26" spans="7:7">
-      <c r="G312" s="32"/>
-    </row>
-    <row r="313" ht="26" spans="7:7">
-      <c r="G313" s="32"/>
-    </row>
-    <row r="314" ht="26" spans="7:7">
-      <c r="G314" s="32"/>
-    </row>
-    <row r="315" ht="26" spans="7:7">
-      <c r="G315" s="32"/>
-    </row>
-    <row r="316" ht="26" spans="7:7">
-      <c r="G316" s="32"/>
-    </row>
-    <row r="317" ht="26" spans="7:7">
-      <c r="G317" s="32"/>
-    </row>
-    <row r="318" ht="26" spans="7:7">
-      <c r="G318" s="32"/>
-    </row>
-    <row r="319" ht="26" spans="7:7">
-      <c r="G319" s="32"/>
-    </row>
-    <row r="320" ht="26" spans="7:7">
-      <c r="G320" s="32"/>
-    </row>
-    <row r="321" ht="26" spans="7:7">
-      <c r="G321" s="32"/>
-    </row>
-    <row r="322" ht="26" spans="7:7">
-      <c r="G322" s="32"/>
-    </row>
-    <row r="323" ht="26" spans="7:7">
-      <c r="G323" s="32"/>
-    </row>
-    <row r="324" ht="26" spans="7:7">
-      <c r="G324" s="32"/>
-    </row>
-    <row r="325" ht="26" spans="7:7">
-      <c r="G325" s="32"/>
-    </row>
-    <row r="326" ht="26" spans="7:7">
-      <c r="G326" s="32"/>
+    <row r="286" ht="26" spans="1:11">
+      <c r="A286" s="34">
+        <v>44482</v>
+      </c>
+      <c r="B286" s="30"/>
+      <c r="C286" s="30"/>
+      <c r="D286" s="30">
+        <v>-100</v>
+      </c>
+      <c r="E286" s="30"/>
+      <c r="F286" s="30">
+        <v>-100</v>
+      </c>
+      <c r="G286" s="30">
+        <v>-100</v>
+      </c>
+      <c r="H286" s="30">
+        <v>-100</v>
+      </c>
+      <c r="I286" s="30"/>
+      <c r="J286" s="30"/>
+      <c r="K286" s="30"/>
+    </row>
+    <row r="287" ht="26" spans="1:11">
+      <c r="A287" s="34">
+        <v>44483</v>
+      </c>
+      <c r="B287" s="30"/>
+      <c r="C287" s="30"/>
+      <c r="D287" s="30"/>
+      <c r="E287" s="30">
+        <v>-100</v>
+      </c>
+      <c r="F287" s="30"/>
+      <c r="G287" s="30"/>
+      <c r="H287" s="30"/>
+      <c r="I287" s="30"/>
+      <c r="J287" s="30">
+        <v>-100</v>
+      </c>
+      <c r="K287" s="30"/>
+    </row>
+    <row r="288" ht="26" spans="1:11">
+      <c r="A288" s="34">
+        <v>44484</v>
+      </c>
+      <c r="B288" s="30"/>
+      <c r="C288" s="30">
+        <v>-120</v>
+      </c>
+      <c r="D288" s="30"/>
+      <c r="E288" s="30"/>
+      <c r="F288" s="30">
+        <v>-100</v>
+      </c>
+      <c r="G288" s="30">
+        <v>-100</v>
+      </c>
+      <c r="H288" s="30">
+        <v>-100</v>
+      </c>
+      <c r="I288" s="30">
+        <v>-100</v>
+      </c>
+      <c r="J288" s="30"/>
+      <c r="K288" s="30"/>
+    </row>
+    <row r="289" ht="26" spans="1:11">
+      <c r="A289" s="34">
+        <v>44487</v>
+      </c>
+      <c r="B289" s="30"/>
+      <c r="D289" s="30">
+        <v>-100</v>
+      </c>
+      <c r="E289" s="30"/>
+      <c r="F289" s="30"/>
+      <c r="G289" s="30"/>
+      <c r="H289" s="30"/>
+      <c r="I289" s="30"/>
+      <c r="J289" s="30"/>
+      <c r="K289" s="30"/>
+    </row>
+    <row r="290" ht="26" spans="1:11">
+      <c r="A290" s="34">
+        <v>44488</v>
+      </c>
+      <c r="B290" s="30"/>
+      <c r="C290" s="30">
+        <v>-120</v>
+      </c>
+      <c r="D290" s="30"/>
+      <c r="E290" s="30"/>
+      <c r="F290" s="30"/>
+      <c r="G290" s="30"/>
+      <c r="H290" s="30"/>
+      <c r="I290" s="30"/>
+      <c r="J290" s="30"/>
+      <c r="K290" s="30"/>
+    </row>
+    <row r="291" ht="26" spans="1:11">
+      <c r="A291" s="34">
+        <v>44489</v>
+      </c>
+      <c r="B291" s="30"/>
+      <c r="C291" s="30"/>
+      <c r="D291" s="30"/>
+      <c r="E291" s="30"/>
+      <c r="F291" s="30">
+        <v>-100</v>
+      </c>
+      <c r="G291" s="30">
+        <v>-100</v>
+      </c>
+      <c r="H291" s="30"/>
+      <c r="I291" s="30"/>
+      <c r="J291" s="30"/>
+      <c r="K291" s="30"/>
+    </row>
+    <row r="292" ht="26" spans="1:11">
+      <c r="A292" s="34">
+        <v>44490</v>
+      </c>
+      <c r="B292" s="30"/>
+      <c r="C292" s="30"/>
+      <c r="D292" s="30"/>
+      <c r="E292" s="30">
+        <v>-100</v>
+      </c>
+      <c r="F292" s="30"/>
+      <c r="G292" s="30"/>
+      <c r="H292" s="30"/>
+      <c r="I292" s="30"/>
+      <c r="J292" s="30">
+        <v>-100</v>
+      </c>
+      <c r="K292" s="30"/>
+    </row>
+    <row r="293" ht="26" spans="1:11">
+      <c r="A293" s="34">
+        <v>44491</v>
+      </c>
+      <c r="B293" s="30"/>
+      <c r="C293" s="30"/>
+      <c r="D293" s="30"/>
+      <c r="E293" s="30"/>
+      <c r="F293" s="30">
+        <v>-100</v>
+      </c>
+      <c r="G293" s="30"/>
+      <c r="H293" s="30">
+        <v>-100</v>
+      </c>
+      <c r="I293" s="30"/>
+      <c r="J293" s="30"/>
+      <c r="K293" s="30"/>
+    </row>
+    <row r="294" ht="26" spans="1:11">
+      <c r="A294" s="34">
+        <v>44494</v>
+      </c>
+      <c r="B294" s="30"/>
+      <c r="C294" s="30"/>
+      <c r="D294" s="30">
+        <v>-100</v>
+      </c>
+      <c r="E294" s="30"/>
+      <c r="F294" s="30"/>
+      <c r="G294" s="30"/>
+      <c r="H294" s="30"/>
+      <c r="I294" s="30"/>
+      <c r="J294" s="30"/>
+      <c r="K294" s="30"/>
+    </row>
+    <row r="295" ht="26" spans="1:11">
+      <c r="A295" s="34">
+        <v>44495</v>
+      </c>
+      <c r="B295" s="30"/>
+      <c r="C295" s="30">
+        <v>-120</v>
+      </c>
+      <c r="D295" s="30"/>
+      <c r="E295" s="30"/>
+      <c r="F295" s="30"/>
+      <c r="G295" s="30"/>
+      <c r="H295" s="30"/>
+      <c r="I295" s="30"/>
+      <c r="J295" s="30"/>
+      <c r="K295" s="30"/>
+    </row>
+    <row r="296" ht="26" spans="1:11">
+      <c r="A296" s="34">
+        <v>44496</v>
+      </c>
+      <c r="B296" s="30"/>
+      <c r="C296" s="30"/>
+      <c r="D296" s="30"/>
+      <c r="E296" s="30"/>
+      <c r="F296" s="30">
+        <v>-100</v>
+      </c>
+      <c r="G296" s="30">
+        <v>-100</v>
+      </c>
+      <c r="H296" s="30"/>
+      <c r="I296" s="30"/>
+      <c r="J296" s="30"/>
+      <c r="K296" s="30"/>
+    </row>
+    <row r="297" ht="26" spans="1:11">
+      <c r="A297" s="34">
+        <v>44497</v>
+      </c>
+      <c r="B297" s="30"/>
+      <c r="C297" s="30"/>
+      <c r="D297" s="30"/>
+      <c r="E297" s="30">
+        <v>-100</v>
+      </c>
+      <c r="F297" s="30"/>
+      <c r="G297" s="30"/>
+      <c r="H297" s="30"/>
+      <c r="I297" s="30"/>
+      <c r="J297" s="30">
+        <v>-100</v>
+      </c>
+      <c r="K297" s="30"/>
+    </row>
+    <row r="298" ht="26" spans="1:11">
+      <c r="A298" s="34">
+        <v>44498</v>
+      </c>
+      <c r="B298" s="30"/>
+      <c r="C298" s="30"/>
+      <c r="D298" s="30"/>
+      <c r="E298" s="30"/>
+      <c r="F298" s="30">
+        <v>-100</v>
+      </c>
+      <c r="G298" s="30"/>
+      <c r="H298" s="30">
+        <v>-100</v>
+      </c>
+      <c r="I298" s="30"/>
+      <c r="J298" s="30"/>
+      <c r="K298" s="30"/>
+    </row>
+    <row r="299" ht="26" spans="1:11">
+      <c r="A299" s="34">
+        <v>44501</v>
+      </c>
+      <c r="B299" s="30"/>
+      <c r="C299" s="30"/>
+      <c r="D299" s="30">
+        <v>-100</v>
+      </c>
+      <c r="E299" s="30"/>
+      <c r="F299" s="30"/>
+      <c r="G299" s="30"/>
+      <c r="H299" s="30"/>
+      <c r="I299" s="30"/>
+      <c r="J299" s="30"/>
+      <c r="K299" s="30"/>
+    </row>
+    <row r="300" ht="26" spans="1:11">
+      <c r="A300" s="34">
+        <v>44502</v>
+      </c>
+      <c r="B300" s="30"/>
+      <c r="C300" s="30">
+        <v>-120</v>
+      </c>
+      <c r="D300" s="30"/>
+      <c r="E300" s="30"/>
+      <c r="F300" s="30">
+        <v>-200</v>
+      </c>
+      <c r="G300" s="30"/>
+      <c r="H300" s="30"/>
+      <c r="I300" s="30"/>
+      <c r="J300" s="30"/>
+      <c r="K300" s="30"/>
+    </row>
+    <row r="301" ht="26" spans="1:11">
+      <c r="A301" s="34">
+        <v>44503</v>
+      </c>
+      <c r="B301" s="30"/>
+      <c r="C301" s="30"/>
+      <c r="D301" s="30"/>
+      <c r="E301" s="30"/>
+      <c r="F301" s="30">
+        <v>-100</v>
+      </c>
+      <c r="G301" s="30">
+        <v>-100</v>
+      </c>
+      <c r="H301" s="30"/>
+      <c r="I301" s="30"/>
+      <c r="J301" s="30"/>
+      <c r="K301" s="30">
+        <v>273.94</v>
+      </c>
+    </row>
+    <row r="302" ht="26" spans="1:11">
+      <c r="A302" s="34">
+        <v>44504</v>
+      </c>
+      <c r="B302" s="30"/>
+      <c r="C302" s="30"/>
+      <c r="D302" s="30"/>
+      <c r="E302" s="30">
+        <v>-100</v>
+      </c>
+      <c r="F302" s="30"/>
+      <c r="G302" s="30"/>
+      <c r="H302" s="30"/>
+      <c r="I302" s="30"/>
+      <c r="J302" s="30">
+        <v>-100</v>
+      </c>
+      <c r="K302" s="30"/>
+    </row>
+    <row r="303" ht="26" spans="1:11">
+      <c r="A303" s="34">
+        <v>44505</v>
+      </c>
+      <c r="B303" s="30"/>
+      <c r="C303" s="30"/>
+      <c r="D303" s="30"/>
+      <c r="E303" s="30"/>
+      <c r="F303" s="30"/>
+      <c r="G303" s="30"/>
+      <c r="H303" s="30">
+        <v>-100</v>
+      </c>
+      <c r="I303" s="30"/>
+      <c r="J303" s="30"/>
+      <c r="K303" s="30"/>
+    </row>
+    <row r="304" ht="26" spans="1:11">
+      <c r="A304" s="34">
+        <v>44508</v>
+      </c>
+      <c r="B304" s="30"/>
+      <c r="C304" s="30"/>
+      <c r="D304" s="30"/>
+      <c r="E304" s="30">
+        <v>-100</v>
+      </c>
+      <c r="F304" s="30"/>
+      <c r="G304" s="30"/>
+      <c r="H304" s="30"/>
+      <c r="I304" s="30"/>
+      <c r="J304" s="30"/>
+      <c r="K304" s="30"/>
+    </row>
+    <row r="305" ht="26" spans="1:11">
+      <c r="A305" s="34">
+        <v>44509</v>
+      </c>
+      <c r="B305" s="30"/>
+      <c r="C305" s="30">
+        <v>-120</v>
+      </c>
+      <c r="D305" s="30"/>
+      <c r="E305" s="30"/>
+      <c r="F305" s="30">
+        <v>-200</v>
+      </c>
+      <c r="G305" s="30"/>
+      <c r="H305" s="30"/>
+      <c r="I305" s="30"/>
+      <c r="J305" s="30"/>
+      <c r="K305" s="30"/>
+    </row>
+    <row r="306" ht="26" spans="1:11">
+      <c r="A306" s="34">
+        <v>44510</v>
+      </c>
+      <c r="B306" s="30"/>
+      <c r="C306" s="30"/>
+      <c r="D306" s="30"/>
+      <c r="E306" s="30"/>
+      <c r="F306" s="30">
+        <v>-100</v>
+      </c>
+      <c r="G306" s="30">
+        <v>-100</v>
+      </c>
+      <c r="H306" s="30"/>
+      <c r="I306" s="30"/>
+      <c r="J306" s="30"/>
+      <c r="K306" s="30"/>
+    </row>
+    <row r="307" ht="26" spans="1:11">
+      <c r="A307" s="34">
+        <v>44511</v>
+      </c>
+      <c r="B307" s="30"/>
+      <c r="C307" s="30"/>
+      <c r="D307" s="30"/>
+      <c r="E307" s="30">
+        <v>-100</v>
+      </c>
+      <c r="F307" s="30"/>
+      <c r="G307" s="30"/>
+      <c r="H307" s="30"/>
+      <c r="I307" s="30"/>
+      <c r="J307" s="30">
+        <v>-100</v>
+      </c>
+      <c r="K307" s="30"/>
+    </row>
+    <row r="308" ht="26" spans="1:11">
+      <c r="A308" s="34">
+        <v>44512</v>
+      </c>
+      <c r="B308" s="30"/>
+      <c r="C308" s="30"/>
+      <c r="D308" s="30"/>
+      <c r="E308" s="30"/>
+      <c r="F308" s="30">
+        <v>-100</v>
+      </c>
+      <c r="G308" s="30"/>
+      <c r="H308" s="30"/>
+      <c r="I308" s="30"/>
+      <c r="J308" s="30"/>
+      <c r="K308" s="30"/>
+    </row>
+    <row r="309" ht="26" spans="1:11">
+      <c r="A309" s="34">
+        <v>44515</v>
+      </c>
+      <c r="B309" s="30"/>
+      <c r="C309" s="30"/>
+      <c r="D309" s="30"/>
+      <c r="E309" s="30"/>
+      <c r="F309" s="30"/>
+      <c r="G309" s="30"/>
+      <c r="H309" s="30"/>
+      <c r="I309" s="30"/>
+      <c r="J309" s="30"/>
+      <c r="K309" s="30"/>
+    </row>
+    <row r="310" ht="26" spans="1:11">
+      <c r="A310" s="34">
+        <v>44516</v>
+      </c>
+      <c r="B310" s="30"/>
+      <c r="C310" s="30"/>
+      <c r="D310" s="30"/>
+      <c r="E310" s="30"/>
+      <c r="G310" s="30"/>
+      <c r="H310" s="30"/>
+      <c r="I310" s="30">
+        <v>3450.61</v>
+      </c>
+      <c r="J310" s="30"/>
+      <c r="K310" s="30"/>
+    </row>
+    <row r="311" ht="26" spans="1:11">
+      <c r="A311" s="34">
+        <v>44517</v>
+      </c>
+      <c r="B311" s="30"/>
+      <c r="C311" s="30"/>
+      <c r="D311" s="30"/>
+      <c r="E311" s="30"/>
+      <c r="F311" s="30">
+        <v>-150</v>
+      </c>
+      <c r="G311" s="30">
+        <v>-100</v>
+      </c>
+      <c r="I311" s="30"/>
+      <c r="J311" s="30"/>
+      <c r="K311" s="30"/>
+    </row>
+    <row r="312" ht="26" spans="1:11">
+      <c r="A312" s="34">
+        <v>44518</v>
+      </c>
+      <c r="B312" s="30"/>
+      <c r="C312" s="30">
+        <v>-120</v>
+      </c>
+      <c r="D312" s="30"/>
+      <c r="E312" s="30"/>
+      <c r="F312" s="30"/>
+      <c r="G312" s="30"/>
+      <c r="H312" s="30"/>
+      <c r="I312" s="30"/>
+      <c r="J312" s="30">
+        <v>-100</v>
+      </c>
+      <c r="K312" s="30"/>
+    </row>
+    <row r="313" ht="26" spans="1:11">
+      <c r="A313" s="34">
+        <v>44519</v>
+      </c>
+      <c r="B313" s="30"/>
+      <c r="C313" s="30"/>
+      <c r="D313" s="30"/>
+      <c r="E313" s="30"/>
+      <c r="F313" s="30">
+        <v>-150</v>
+      </c>
+      <c r="G313" s="30"/>
+      <c r="H313" s="30"/>
+      <c r="I313" s="30"/>
+      <c r="J313" s="30"/>
+      <c r="K313" s="30"/>
+    </row>
+    <row r="314" ht="26" spans="1:11">
+      <c r="A314" s="34">
+        <v>44522</v>
+      </c>
+      <c r="B314" s="30"/>
+      <c r="C314" s="30"/>
+      <c r="D314" s="30"/>
+      <c r="E314" s="30"/>
+      <c r="F314" s="30"/>
+      <c r="G314" s="30"/>
+      <c r="H314" s="30"/>
+      <c r="I314" s="30"/>
+      <c r="J314" s="30"/>
+      <c r="K314" s="30"/>
+    </row>
+    <row r="315" ht="26" spans="1:11">
+      <c r="A315" s="34">
+        <v>44523</v>
+      </c>
+      <c r="B315" s="30"/>
+      <c r="C315" s="30"/>
+      <c r="D315" s="30"/>
+      <c r="E315" s="30"/>
+      <c r="F315" s="30"/>
+      <c r="G315" s="30"/>
+      <c r="H315" s="30"/>
+      <c r="I315" s="30"/>
+      <c r="J315" s="30"/>
+      <c r="K315" s="30"/>
+    </row>
+    <row r="316" ht="26" spans="1:11">
+      <c r="A316" s="34">
+        <v>44524</v>
+      </c>
+      <c r="B316" s="30"/>
+      <c r="C316" s="30"/>
+      <c r="D316" s="30"/>
+      <c r="E316" s="30"/>
+      <c r="F316" s="30">
+        <v>-150</v>
+      </c>
+      <c r="G316" s="30">
+        <v>-100</v>
+      </c>
+      <c r="H316" s="30"/>
+      <c r="I316" s="30"/>
+      <c r="J316" s="30"/>
+      <c r="K316" s="30"/>
+    </row>
+    <row r="317" ht="26" spans="1:11">
+      <c r="A317" s="34">
+        <v>44525</v>
+      </c>
+      <c r="B317" s="30"/>
+      <c r="C317" s="30">
+        <v>-120</v>
+      </c>
+      <c r="D317" s="30"/>
+      <c r="E317" s="30">
+        <v>-100</v>
+      </c>
+      <c r="F317" s="30"/>
+      <c r="G317" s="30"/>
+      <c r="H317" s="30"/>
+      <c r="I317" s="30"/>
+      <c r="J317" s="30">
+        <v>-100</v>
+      </c>
+      <c r="K317" s="30"/>
+    </row>
+    <row r="318" ht="26" spans="1:11">
+      <c r="A318" s="34">
+        <v>44526</v>
+      </c>
+      <c r="B318" s="30"/>
+      <c r="C318" s="30"/>
+      <c r="D318" s="30"/>
+      <c r="E318" s="30"/>
+      <c r="F318" s="30">
+        <v>-150</v>
+      </c>
+      <c r="G318" s="30"/>
+      <c r="H318" s="30"/>
+      <c r="I318" s="30"/>
+      <c r="J318" s="30"/>
+      <c r="K318" s="30"/>
+    </row>
+    <row r="319" ht="26" spans="1:11">
+      <c r="A319" s="34">
+        <v>44529</v>
+      </c>
+      <c r="B319" s="30"/>
+      <c r="C319" s="30"/>
+      <c r="D319" s="30"/>
+      <c r="E319" s="30"/>
+      <c r="F319" s="30"/>
+      <c r="G319" s="30"/>
+      <c r="H319" s="30"/>
+      <c r="I319" s="30"/>
+      <c r="J319" s="30"/>
+      <c r="K319" s="30"/>
+    </row>
+    <row r="320" ht="26" spans="1:11">
+      <c r="A320" s="34">
+        <v>44530</v>
+      </c>
+      <c r="B320" s="30"/>
+      <c r="C320" s="30"/>
+      <c r="D320" s="30"/>
+      <c r="E320" s="30"/>
+      <c r="F320" s="30"/>
+      <c r="G320" s="30"/>
+      <c r="H320" s="30"/>
+      <c r="I320" s="30"/>
+      <c r="J320" s="30"/>
+      <c r="K320" s="30"/>
+    </row>
+    <row r="321" ht="26" spans="1:11">
+      <c r="A321" s="34">
+        <v>44531</v>
+      </c>
+      <c r="B321" s="30"/>
+      <c r="C321" s="30"/>
+      <c r="D321" s="30"/>
+      <c r="E321" s="30"/>
+      <c r="F321" s="30">
+        <v>-150</v>
+      </c>
+      <c r="G321" s="30">
+        <v>-100</v>
+      </c>
+      <c r="H321" s="30">
+        <v>4290.21</v>
+      </c>
+      <c r="I321" s="30"/>
+      <c r="J321" s="30"/>
+      <c r="K321" s="30"/>
+    </row>
+    <row r="322" ht="26" spans="1:11">
+      <c r="A322" s="34">
+        <v>44532</v>
+      </c>
+      <c r="B322" s="30"/>
+      <c r="C322" s="30">
+        <v>-120</v>
+      </c>
+      <c r="D322" s="30"/>
+      <c r="E322" s="30">
+        <v>-100</v>
+      </c>
+      <c r="F322" s="30"/>
+      <c r="G322" s="30"/>
+      <c r="H322" s="30"/>
+      <c r="I322" s="30"/>
+      <c r="J322" s="30">
+        <v>-100</v>
+      </c>
+      <c r="K322" s="30"/>
+    </row>
+    <row r="323" ht="26" spans="1:11">
+      <c r="A323" s="34">
+        <v>44533</v>
+      </c>
+      <c r="B323" s="30"/>
+      <c r="C323" s="30"/>
+      <c r="D323" s="30"/>
+      <c r="E323" s="30"/>
+      <c r="F323" s="30">
+        <v>-150</v>
+      </c>
+      <c r="G323" s="30"/>
+      <c r="H323" s="30"/>
+      <c r="I323" s="30"/>
+      <c r="J323" s="30"/>
+      <c r="K323" s="30"/>
+    </row>
+    <row r="324" ht="26" spans="1:11">
+      <c r="A324" s="34">
+        <v>44536</v>
+      </c>
+      <c r="B324" s="30"/>
+      <c r="C324" s="30"/>
+      <c r="D324" s="30"/>
+      <c r="E324" s="30"/>
+      <c r="F324" s="30"/>
+      <c r="G324" s="30"/>
+      <c r="H324" s="30"/>
+      <c r="I324" s="30"/>
+      <c r="J324" s="30"/>
+      <c r="K324" s="30"/>
+    </row>
+    <row r="325" ht="26" spans="1:11">
+      <c r="A325" s="34">
+        <v>44537</v>
+      </c>
+      <c r="B325" s="30"/>
+      <c r="C325" s="30"/>
+      <c r="D325" s="30"/>
+      <c r="E325" s="30"/>
+      <c r="F325" s="30">
+        <v>-300</v>
+      </c>
+      <c r="G325" s="30"/>
+      <c r="H325" s="30"/>
+      <c r="I325" s="30"/>
+      <c r="J325" s="30"/>
+      <c r="K325" s="30"/>
+    </row>
+    <row r="326" ht="26" spans="1:11">
+      <c r="A326" s="34">
+        <v>44538</v>
+      </c>
+      <c r="B326" s="30"/>
+      <c r="C326" s="30"/>
+      <c r="D326" s="30"/>
+      <c r="E326" s="30"/>
+      <c r="F326" s="30">
+        <v>-150</v>
+      </c>
+      <c r="G326" s="30">
+        <v>-100</v>
+      </c>
+      <c r="H326" s="30"/>
+      <c r="I326" s="30"/>
+      <c r="J326" s="30"/>
+      <c r="K326" s="30"/>
     </row>
     <row r="327" ht="26" spans="7:7">
       <c r="G327" s="32"/>
@@ -20712,6 +22136,129 @@
     </row>
     <row r="338" ht="26" spans="7:7">
       <c r="G338" s="32"/>
+    </row>
+    <row r="339" ht="26" spans="7:7">
+      <c r="G339" s="32"/>
+    </row>
+    <row r="340" ht="26" spans="7:7">
+      <c r="G340" s="32"/>
+    </row>
+    <row r="341" ht="26" spans="7:7">
+      <c r="G341" s="32"/>
+    </row>
+    <row r="342" ht="26" spans="7:7">
+      <c r="G342" s="32"/>
+    </row>
+    <row r="343" ht="26" spans="7:7">
+      <c r="G343" s="32"/>
+    </row>
+    <row r="344" ht="26" spans="7:7">
+      <c r="G344" s="32"/>
+    </row>
+    <row r="345" ht="26" spans="7:7">
+      <c r="G345" s="32"/>
+    </row>
+    <row r="346" ht="26" spans="7:7">
+      <c r="G346" s="32"/>
+    </row>
+    <row r="347" ht="26" spans="7:7">
+      <c r="G347" s="32"/>
+    </row>
+    <row r="348" ht="26" spans="7:7">
+      <c r="G348" s="32"/>
+    </row>
+    <row r="349" ht="26" spans="7:7">
+      <c r="G349" s="32"/>
+    </row>
+    <row r="350" ht="26" spans="7:7">
+      <c r="G350" s="32"/>
+    </row>
+    <row r="351" ht="26" spans="7:7">
+      <c r="G351" s="32"/>
+    </row>
+    <row r="352" ht="26" spans="7:7">
+      <c r="G352" s="32"/>
+    </row>
+    <row r="353" ht="26" spans="7:7">
+      <c r="G353" s="32"/>
+    </row>
+    <row r="354" ht="26" spans="7:7">
+      <c r="G354" s="32"/>
+    </row>
+    <row r="355" ht="26" spans="7:7">
+      <c r="G355" s="32"/>
+    </row>
+    <row r="356" ht="26" spans="7:7">
+      <c r="G356" s="32"/>
+    </row>
+    <row r="357" ht="26" spans="7:7">
+      <c r="G357" s="32"/>
+    </row>
+    <row r="358" ht="26" spans="7:7">
+      <c r="G358" s="32"/>
+    </row>
+    <row r="359" ht="26" spans="7:7">
+      <c r="G359" s="32"/>
+    </row>
+    <row r="360" ht="26" spans="7:7">
+      <c r="G360" s="32"/>
+    </row>
+    <row r="361" ht="26" spans="7:7">
+      <c r="G361" s="32"/>
+    </row>
+    <row r="362" ht="26" spans="7:7">
+      <c r="G362" s="32"/>
+    </row>
+    <row r="363" ht="26" spans="7:7">
+      <c r="G363" s="32"/>
+    </row>
+    <row r="364" ht="26" spans="7:7">
+      <c r="G364" s="32"/>
+    </row>
+    <row r="365" ht="26" spans="7:7">
+      <c r="G365" s="32"/>
+    </row>
+    <row r="366" ht="26" spans="7:7">
+      <c r="G366" s="32"/>
+    </row>
+    <row r="367" ht="26" spans="7:7">
+      <c r="G367" s="32"/>
+    </row>
+    <row r="368" ht="26" spans="7:7">
+      <c r="G368" s="32"/>
+    </row>
+    <row r="369" ht="26" spans="7:7">
+      <c r="G369" s="32"/>
+    </row>
+    <row r="370" ht="26" spans="7:7">
+      <c r="G370" s="32"/>
+    </row>
+    <row r="371" ht="26" spans="7:7">
+      <c r="G371" s="32"/>
+    </row>
+    <row r="372" ht="26" spans="7:7">
+      <c r="G372" s="32"/>
+    </row>
+    <row r="373" ht="26" spans="7:7">
+      <c r="G373" s="32"/>
+    </row>
+    <row r="374" ht="26" spans="7:7">
+      <c r="G374" s="32"/>
+    </row>
+    <row r="375" ht="26" spans="7:7">
+      <c r="G375" s="32"/>
+    </row>
+    <row r="376" ht="26" spans="7:7">
+      <c r="G376" s="32"/>
+    </row>
+    <row r="377" ht="26" spans="7:7">
+      <c r="G377" s="32"/>
+    </row>
+    <row r="378" ht="26" spans="7:7">
+      <c r="G378" s="32"/>
+    </row>
+    <row r="379" ht="26" spans="7:7">
+      <c r="G379" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
